--- a/04_Modelling/01_benthic/03_acoustic/BRT_Output_acoustic/contrib_mod_best_fixed_logAcousticFond_gaussian.xlsx
+++ b/04_Modelling/01_benthic/03_acoustic/BRT_Output_acoustic/contrib_mod_best_fixed_logAcousticFond_gaussian.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>27.31180615558622</v>
+        <v>28.07449740818511</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>25.45334881705334</v>
+        <v>25.48714478481831</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>20.24093056500076</v>
+        <v>19.95051087933926</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>9.603238268963814</v>
+        <v>9.261162841636322</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>7.575227556696124</v>
+        <v>7.368611432128175</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>5.228082336024892</v>
+        <v>5.168592482963631</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>4.587366300674849</v>
+        <v>4.689480170929193</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/01_benthic/03_acoustic/BRT_Output_acoustic/contrib_mod_best_fixed_logAcousticFond_gaussian.xlsx
+++ b/04_Modelling/01_benthic/03_acoustic/BRT_Output_acoustic/contrib_mod_best_fixed_logAcousticFond_gaussian.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>28.07449740818511</v>
+        <v>27.80961241492737</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>25.48714478481831</v>
+        <v>25.42882193453775</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>19.95051087933926</v>
+        <v>20.14878607324049</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>9.261162841636322</v>
+        <v>9.653878052057268</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>7.368611432128175</v>
+        <v>7.394374712868707</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>5.168592482963631</v>
+        <v>5.019209798603036</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>4.689480170929193</v>
+        <v>4.545317013765384</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/01_benthic/03_acoustic/BRT_Output_acoustic/contrib_mod_best_fixed_logAcousticFond_gaussian.xlsx
+++ b/04_Modelling/01_benthic/03_acoustic/BRT_Output_acoustic/contrib_mod_best_fixed_logAcousticFond_gaussian.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,71 +372,161 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LandMinDist</t>
+          <t>BottomDepth</t>
         </is>
       </c>
       <c r="B2">
-        <v>27.80961241492737</v>
+        <v>18.81788699666203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SSTmean</t>
+          <t>LandMinDist</t>
         </is>
       </c>
       <c r="B3">
-        <v>25.42882193453775</v>
+        <v>16.20923543755552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BottomDepth</t>
+          <t>ReefMinDist</t>
         </is>
       </c>
       <c r="B4">
-        <v>20.14878607324049</v>
+        <v>11.63391623465469</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chla</t>
+          <t>TravelTime</t>
         </is>
       </c>
       <c r="B5">
-        <v>9.653878052057268</v>
+        <v>11.5036849460416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EastwardVelocity</t>
+          <t>SSTmean</t>
         </is>
       </c>
       <c r="B6">
-        <v>7.394374712868707</v>
+        <v>10.15613660044467</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NorthwardVelocity</t>
+          <t>SSTmax</t>
         </is>
       </c>
       <c r="B7">
-        <v>5.019209798603036</v>
+        <v>6.892207420673429</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>SuspendedParticulateMatter</t>
         </is>
       </c>
       <c r="B8">
-        <v>4.545317013765384</v>
+        <v>5.710359048430691</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chla</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>3.692767061536654</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EastwardVelocity</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>3.501287867388134</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SummitRugosity</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>3.050486900872704</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Salinity</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>3.000590522426222</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SummitDepth</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>1.785598066852983</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NorthwardVelocity</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>1.604875972489642</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SummitAreaKm2</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>1.229801577202329</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>seafloorTemp</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>1.211165346768705</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
